--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Thy1</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.370512</v>
+        <v>0.2680845</v>
       </c>
       <c r="H2">
-        <v>0.741024</v>
+        <v>0.536169</v>
       </c>
       <c r="I2">
-        <v>0.001638838393995521</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="J2">
-        <v>0.00109315609805839</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.713374999999999</v>
+        <v>13.6639805</v>
       </c>
       <c r="N2">
-        <v>9.426749999999998</v>
+        <v>27.327961</v>
       </c>
       <c r="O2">
-        <v>0.05587567929323027</v>
+        <v>0.1267530133429073</v>
       </c>
       <c r="P2">
-        <v>0.0419151680218315</v>
+        <v>0.105516198834981</v>
       </c>
       <c r="Q2">
-        <v>1.746361998</v>
+        <v>3.66310138035225</v>
       </c>
       <c r="R2">
-        <v>6.985447991999999</v>
+        <v>14.652405521409</v>
       </c>
       <c r="S2">
-        <v>9.15712085163263E-05</v>
+        <v>7.366937238766389E-05</v>
       </c>
       <c r="T2">
-        <v>4.581982152420714E-05</v>
+        <v>4.091029204771484E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.370512</v>
+        <v>0.2680845</v>
       </c>
       <c r="H3">
-        <v>0.741024</v>
+        <v>0.536169</v>
       </c>
       <c r="I3">
-        <v>0.001638838393995521</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="J3">
-        <v>0.00109315609805839</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>129.257158</v>
       </c>
       <c r="O3">
-        <v>0.5107685757206811</v>
+        <v>0.3996818319190926</v>
       </c>
       <c r="P3">
-        <v>0.5747299435748717</v>
+        <v>0.4990757994850972</v>
       </c>
       <c r="Q3">
-        <v>15.963776041632</v>
+        <v>11.550613524617</v>
       </c>
       <c r="R3">
-        <v>95.782656249792</v>
+        <v>69.30368114770201</v>
       </c>
       <c r="S3">
-        <v>0.0008370671523374608</v>
+        <v>0.0002322967236492838</v>
       </c>
       <c r="T3">
-        <v>0.0006282695425556256</v>
+        <v>0.000193499547333137</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.370512</v>
+        <v>0.2680845</v>
       </c>
       <c r="H4">
-        <v>0.741024</v>
+        <v>0.536169</v>
       </c>
       <c r="I4">
-        <v>0.001638838393995521</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="J4">
-        <v>0.00109315609805839</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1358286666666667</v>
+        <v>50.7431145</v>
       </c>
       <c r="N4">
-        <v>0.407486</v>
+        <v>101.486229</v>
       </c>
       <c r="O4">
-        <v>0.001610209036517091</v>
+        <v>0.4707151528267456</v>
       </c>
       <c r="P4">
-        <v>0.00181184863887809</v>
+        <v>0.3918492535237597</v>
       </c>
       <c r="Q4">
-        <v>0.050326150944</v>
+        <v>13.60344247917525</v>
       </c>
       <c r="R4">
-        <v>0.301956905664</v>
+        <v>54.41376991670101</v>
       </c>
       <c r="S4">
-        <v>2.638872391402746E-06</v>
+        <v>0.000273581581751406</v>
       </c>
       <c r="T4">
-        <v>1.980633388348378E-06</v>
+        <v>0.0001519261267685236</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.370512</v>
+        <v>0.2680845</v>
       </c>
       <c r="H5">
-        <v>0.741024</v>
+        <v>0.536169</v>
       </c>
       <c r="I5">
-        <v>0.001638838393995521</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="J5">
-        <v>0.00109315609805839</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>23.4499775</v>
+        <v>0.2823153333333333</v>
       </c>
       <c r="N5">
-        <v>46.899955</v>
+        <v>0.846946</v>
       </c>
       <c r="O5">
-        <v>0.2779926108623791</v>
+        <v>0.00261887955804001</v>
       </c>
       <c r="P5">
-        <v>0.2085362923638938</v>
+        <v>0.003270149666068823</v>
       </c>
       <c r="Q5">
-        <v>8.688498063479999</v>
+        <v>0.075684364979</v>
       </c>
       <c r="R5">
-        <v>34.75399225392</v>
+        <v>0.454106189874</v>
       </c>
       <c r="S5">
-        <v>0.0004555849639283232</v>
+        <v>1.522103564336965E-06</v>
       </c>
       <c r="T5">
-        <v>0.0002279627196640779</v>
+        <v>1.267888526650191E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,108 +791,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.370512</v>
+        <v>0.2680845</v>
       </c>
       <c r="H6">
-        <v>0.741024</v>
+        <v>0.536169</v>
       </c>
       <c r="I6">
-        <v>0.001638838393995521</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="J6">
-        <v>0.00109315609805839</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>11.373275</v>
+        <v>0.024915</v>
       </c>
       <c r="N6">
-        <v>34.119825</v>
+        <v>0.07474500000000001</v>
       </c>
       <c r="O6">
-        <v>0.1348268420004166</v>
+        <v>0.0002311223532146094</v>
       </c>
       <c r="P6">
-        <v>0.1517106317395165</v>
+        <v>0.0002885984900930097</v>
       </c>
       <c r="Q6">
-        <v>4.2139348668</v>
+        <v>0.006679325317500001</v>
       </c>
       <c r="R6">
-        <v>25.2836092008</v>
+        <v>0.040075951905</v>
       </c>
       <c r="S6">
-        <v>0.0002209594052114506</v>
+        <v>1.343292617432121E-07</v>
       </c>
       <c r="T6">
-        <v>0.0001658434022263432</v>
+        <v>1.118941797050444E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.040702</v>
+      </c>
+      <c r="I7">
+        <v>2.941382252017391E-05</v>
+      </c>
+      <c r="J7">
+        <v>2.943252297302894E-05</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.370512</v>
-      </c>
-      <c r="H7">
-        <v>0.741024</v>
-      </c>
-      <c r="I7">
-        <v>0.001638838393995521</v>
-      </c>
-      <c r="J7">
-        <v>0.00109315609805839</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.596503666666667</v>
+        <v>13.6639805</v>
       </c>
       <c r="N7">
-        <v>4.789511</v>
+        <v>27.327961</v>
       </c>
       <c r="O7">
-        <v>0.01892608308677601</v>
+        <v>0.1267530133429073</v>
       </c>
       <c r="P7">
-        <v>0.02129611566100833</v>
+        <v>0.105516198834981</v>
       </c>
       <c r="Q7">
-        <v>0.5915237665440001</v>
+        <v>0.1853837781036667</v>
       </c>
       <c r="R7">
-        <v>3.549142599264</v>
+        <v>1.112302668622</v>
       </c>
       <c r="S7">
-        <v>3.10167916105578E-05</v>
+        <v>3.72829063836551E-06</v>
       </c>
       <c r="T7">
-        <v>2.327997869978804E-05</v>
+        <v>3.105607946237268E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -921,40 +921,40 @@
         <v>0.040702</v>
       </c>
       <c r="I8">
-        <v>6.001065220776088E-05</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="J8">
-        <v>6.004345271296557E-05</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.713374999999999</v>
+        <v>43.08571933333334</v>
       </c>
       <c r="N8">
-        <v>9.426749999999998</v>
+        <v>129.257158</v>
       </c>
       <c r="O8">
-        <v>0.05587567929323027</v>
+        <v>0.3996818319190926</v>
       </c>
       <c r="P8">
-        <v>0.0419151680218315</v>
+        <v>0.4990757994850972</v>
       </c>
       <c r="Q8">
-        <v>0.06394792974999998</v>
+        <v>0.5845583161017779</v>
       </c>
       <c r="R8">
-        <v>0.3836875784999999</v>
+        <v>5.261024844916</v>
       </c>
       <c r="S8">
-        <v>3.353135956938428E-06</v>
+        <v>1.175617046860617E-05</v>
       </c>
       <c r="T8">
-        <v>2.516731409074846E-06</v>
+        <v>1.468905993362791E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -983,40 +983,40 @@
         <v>0.040702</v>
       </c>
       <c r="I9">
-        <v>6.001065220776088E-05</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="J9">
-        <v>6.004345271296557E-05</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.08571933333334</v>
+        <v>50.7431145</v>
       </c>
       <c r="N9">
-        <v>129.257158</v>
+        <v>101.486229</v>
       </c>
       <c r="O9">
-        <v>0.5107685757206811</v>
+        <v>0.4707151528267456</v>
       </c>
       <c r="P9">
-        <v>0.5747299435748717</v>
+        <v>0.3918492535237597</v>
       </c>
       <c r="Q9">
-        <v>0.5845583161017778</v>
+        <v>0.6884487487930001</v>
       </c>
       <c r="R9">
-        <v>5.261024844915999</v>
+        <v>4.130692492758</v>
       </c>
       <c r="S9">
-        <v>3.065155535622717E-05</v>
+        <v>1.384553196280243E-05</v>
       </c>
       <c r="T9">
-        <v>3.450877018976318E-05</v>
+        <v>1.15331121563023E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1045,40 +1045,40 @@
         <v>0.040702</v>
       </c>
       <c r="I10">
-        <v>6.001065220776088E-05</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="J10">
-        <v>6.004345271296557E-05</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1358286666666667</v>
+        <v>0.2823153333333333</v>
       </c>
       <c r="N10">
-        <v>0.407486</v>
+        <v>0.846946</v>
       </c>
       <c r="O10">
-        <v>0.001610209036517091</v>
+        <v>0.00261887955804001</v>
       </c>
       <c r="P10">
-        <v>0.00181184863887809</v>
+        <v>0.003270149666068823</v>
       </c>
       <c r="Q10">
-        <v>0.001842832796888889</v>
+        <v>0.003830266232444444</v>
       </c>
       <c r="R10">
-        <v>0.016585495172</v>
+        <v>0.034472396092</v>
       </c>
       <c r="S10">
-        <v>9.662969447222091E-08</v>
+        <v>7.703125852190032E-08</v>
       </c>
       <c r="T10">
-        <v>1.087896480715276E-07</v>
+        <v>9.624875517181354E-08</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1107,134 +1107,134 @@
         <v>0.040702</v>
       </c>
       <c r="I11">
-        <v>6.001065220776088E-05</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="J11">
-        <v>6.004345271296557E-05</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>23.4499775</v>
+        <v>0.024915</v>
       </c>
       <c r="N11">
-        <v>46.899955</v>
+        <v>0.07474500000000001</v>
       </c>
       <c r="O11">
-        <v>0.2779926108623791</v>
+        <v>0.0002311223532146094</v>
       </c>
       <c r="P11">
-        <v>0.2085362923638938</v>
+        <v>0.0002885984900930097</v>
       </c>
       <c r="Q11">
-        <v>0.3181536614016666</v>
+        <v>0.0003380301100000001</v>
       </c>
       <c r="R11">
-        <v>1.90892196841</v>
+        <v>0.003042270990000001</v>
       </c>
       <c r="S11">
-        <v>1.668251788678964E-05</v>
+        <v>6.798191877899466E-09</v>
       </c>
       <c r="T11">
-        <v>1.252123900948862E-05</v>
+        <v>8.494181689643973E-09</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.01356733333333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="H12">
-        <v>0.040702</v>
+        <v>481.13453</v>
       </c>
       <c r="I12">
-        <v>6.001065220776088E-05</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="J12">
-        <v>6.004345271296557E-05</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.373275</v>
+        <v>13.6639805</v>
       </c>
       <c r="N12">
-        <v>34.119825</v>
+        <v>27.327961</v>
       </c>
       <c r="O12">
-        <v>0.1348268420004166</v>
+        <v>0.1267530133429073</v>
       </c>
       <c r="P12">
-        <v>0.1517106317395165</v>
+        <v>0.105516198834981</v>
       </c>
       <c r="Q12">
-        <v>0.1543050130166667</v>
+        <v>2191.404278598889</v>
       </c>
       <c r="R12">
-        <v>1.38874511715</v>
+        <v>13148.42567159333</v>
       </c>
       <c r="S12">
-        <v>8.091046723557729E-06</v>
+        <v>0.04407177445809517</v>
       </c>
       <c r="T12">
-        <v>9.109230142905791E-06</v>
+        <v>0.03671110067262378</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.01356733333333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="H13">
-        <v>0.040702</v>
+        <v>481.13453</v>
       </c>
       <c r="I13">
-        <v>6.001065220776088E-05</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="J13">
-        <v>6.004345271296557E-05</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.596503666666667</v>
+        <v>43.08571933333334</v>
       </c>
       <c r="N13">
-        <v>4.789511</v>
+        <v>129.257158</v>
       </c>
       <c r="O13">
-        <v>0.01892608308677601</v>
+        <v>0.3996818319190926</v>
       </c>
       <c r="P13">
-        <v>0.02129611566100833</v>
+        <v>0.4990757994850972</v>
       </c>
       <c r="Q13">
-        <v>0.02166029741355556</v>
+        <v>6910.00910705175</v>
       </c>
       <c r="R13">
-        <v>0.194942676722</v>
+        <v>62190.08196346575</v>
       </c>
       <c r="S13">
-        <v>1.135766589775701E-06</v>
+        <v>0.1389685900695963</v>
       </c>
       <c r="T13">
-        <v>1.278692313661599E-06</v>
+        <v>0.1736380017519506</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.6539663333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="H14">
-        <v>373.961899</v>
+        <v>481.13453</v>
       </c>
       <c r="I14">
-        <v>0.5513659638308389</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="J14">
-        <v>0.5516673283636506</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.713374999999999</v>
+        <v>50.7431145</v>
       </c>
       <c r="N14">
-        <v>9.426749999999998</v>
+        <v>101.486229</v>
       </c>
       <c r="O14">
-        <v>0.05587567929323027</v>
+        <v>0.4707151528267456</v>
       </c>
       <c r="P14">
-        <v>0.0419151680218315</v>
+        <v>0.3918492535237597</v>
       </c>
       <c r="Q14">
-        <v>587.540888566375</v>
+        <v>8138.088181897897</v>
       </c>
       <c r="R14">
-        <v>3525.24533139825</v>
+        <v>48828.52909138738</v>
       </c>
       <c r="S14">
-        <v>0.03080794776821476</v>
+        <v>0.1636667366105579</v>
       </c>
       <c r="T14">
-        <v>0.0231232287605173</v>
+        <v>0.1363318386506755</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.6539663333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="H15">
-        <v>373.961899</v>
+        <v>481.13453</v>
       </c>
       <c r="I15">
-        <v>0.5513659638308389</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="J15">
-        <v>0.5516673283636506</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>43.08571933333334</v>
+        <v>0.2823153333333333</v>
       </c>
       <c r="N15">
-        <v>129.257158</v>
+        <v>0.846946</v>
       </c>
       <c r="O15">
-        <v>0.5107685757206811</v>
+        <v>0.00261887955804001</v>
       </c>
       <c r="P15">
-        <v>0.5747299435748717</v>
+        <v>0.003270149666068823</v>
       </c>
       <c r="Q15">
-        <v>5370.805807224783</v>
+        <v>45.27721840504223</v>
       </c>
       <c r="R15">
-        <v>48337.25226502305</v>
+        <v>407.49496564538</v>
       </c>
       <c r="S15">
-        <v>0.2816204080467382</v>
+        <v>0.0009105792925223087</v>
       </c>
       <c r="T15">
-        <v>0.3170597325025412</v>
+        <v>0.001137747520580698</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.6539663333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="H16">
-        <v>373.961899</v>
+        <v>481.13453</v>
       </c>
       <c r="I16">
-        <v>0.5513659638308389</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="J16">
-        <v>0.5516673283636506</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,60 +1429,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1358286666666667</v>
+        <v>0.024915</v>
       </c>
       <c r="N16">
-        <v>0.407486</v>
+        <v>0.07474500000000001</v>
       </c>
       <c r="O16">
-        <v>0.001610209036517091</v>
+        <v>0.0002311223532146094</v>
       </c>
       <c r="P16">
-        <v>0.00181184863887809</v>
+        <v>0.0002885984900930097</v>
       </c>
       <c r="Q16">
-        <v>16.93158204176823</v>
+        <v>3.995822271650001</v>
       </c>
       <c r="R16">
-        <v>152.384238375914</v>
+        <v>35.96240044485</v>
       </c>
       <c r="S16">
-        <v>0.0008878144573883726</v>
+        <v>8.036078949493825E-05</v>
       </c>
       <c r="T16">
-        <v>0.0009995376980091925</v>
+        <v>0.0001004089262193862</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>124.6539663333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="H17">
-        <v>373.961899</v>
+        <v>1.222236</v>
       </c>
       <c r="I17">
-        <v>0.5513659638308389</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="J17">
-        <v>0.5516673283636506</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,60 +1491,60 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.4499775</v>
+        <v>13.6639805</v>
       </c>
       <c r="N17">
-        <v>46.899955</v>
+        <v>27.327961</v>
       </c>
       <c r="O17">
-        <v>0.2779926108623791</v>
+        <v>0.1267530133429073</v>
       </c>
       <c r="P17">
-        <v>0.2085362923638938</v>
+        <v>0.105516198834981</v>
       </c>
       <c r="Q17">
-        <v>2923.132705802424</v>
+        <v>8.350304435199002</v>
       </c>
       <c r="R17">
-        <v>17538.79623481454</v>
+        <v>33.40121774079601</v>
       </c>
       <c r="S17">
-        <v>0.153275663825987</v>
+        <v>0.0001679346605820343</v>
       </c>
       <c r="T17">
-        <v>0.1150426592752505</v>
+        <v>9.325796849730367E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>124.6539663333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="H18">
-        <v>373.961899</v>
+        <v>1.222236</v>
       </c>
       <c r="I18">
-        <v>0.5513659638308389</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="J18">
-        <v>0.5516673283636506</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,90 +1553,90 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.373275</v>
+        <v>43.08571933333334</v>
       </c>
       <c r="N18">
-        <v>34.119825</v>
+        <v>129.257158</v>
       </c>
       <c r="O18">
-        <v>0.1348268420004166</v>
+        <v>0.3996818319190926</v>
       </c>
       <c r="P18">
-        <v>0.1517106317395165</v>
+        <v>0.4990757994850972</v>
       </c>
       <c r="Q18">
-        <v>1417.723838949742</v>
+        <v>26.330458627548</v>
       </c>
       <c r="R18">
-        <v>12759.51455054768</v>
+        <v>157.982751765288</v>
       </c>
       <c r="S18">
-        <v>0.07433893168982794</v>
+        <v>0.0005295371763869341</v>
       </c>
       <c r="T18">
-        <v>0.08369379889610072</v>
+        <v>0.0004410962079759628</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>124.6539663333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="H19">
-        <v>373.961899</v>
+        <v>1.222236</v>
       </c>
       <c r="I19">
-        <v>0.5513659638308389</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="J19">
-        <v>0.5516673283636506</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.596503666666667</v>
+        <v>50.7431145</v>
       </c>
       <c r="N19">
-        <v>4.789511</v>
+        <v>101.486229</v>
       </c>
       <c r="O19">
-        <v>0.01892608308677601</v>
+        <v>0.4707151528267456</v>
       </c>
       <c r="P19">
-        <v>0.02129611566100833</v>
+        <v>0.3918492535237597</v>
       </c>
       <c r="Q19">
-        <v>199.0105143157099</v>
+        <v>31.010030647011</v>
       </c>
       <c r="R19">
-        <v>1791.094628841389</v>
+        <v>124.040122588044</v>
       </c>
       <c r="S19">
-        <v>0.0104351980426828</v>
+        <v>0.0006236489952860226</v>
       </c>
       <c r="T19">
-        <v>0.01174837123123176</v>
+        <v>0.0003463265900808387</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.4121773333333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="H20">
-        <v>1.236532</v>
+        <v>1.222236</v>
       </c>
       <c r="I20">
-        <v>0.001823131339879293</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="J20">
-        <v>0.001824127823450168</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>4.713374999999999</v>
+        <v>0.2823153333333333</v>
       </c>
       <c r="N20">
-        <v>9.426749999999998</v>
+        <v>0.846946</v>
       </c>
       <c r="O20">
-        <v>0.05587567929323027</v>
+        <v>0.00261887955804001</v>
       </c>
       <c r="P20">
-        <v>0.0419151680218315</v>
+        <v>0.003270149666068823</v>
       </c>
       <c r="Q20">
-        <v>1.9427463385</v>
+        <v>0.172527981876</v>
       </c>
       <c r="R20">
-        <v>11.656478031</v>
+        <v>1.035167891256</v>
       </c>
       <c r="S20">
-        <v>0.0001018687020565326</v>
+        <v>3.469745121521302E-06</v>
       </c>
       <c r="T20">
-        <v>7.645862421321158E-05</v>
+        <v>2.890243563613009E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,309 +1706,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.4121773333333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="H21">
-        <v>1.236532</v>
+        <v>1.222236</v>
       </c>
       <c r="I21">
-        <v>0.001823131339879293</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="J21">
-        <v>0.001824127823450168</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>43.08571933333334</v>
+        <v>0.024915</v>
       </c>
       <c r="N21">
-        <v>129.257158</v>
+        <v>0.07474500000000001</v>
       </c>
       <c r="O21">
-        <v>0.5107685757206811</v>
+        <v>0.0002311223532146094</v>
       </c>
       <c r="P21">
-        <v>0.5747299435748717</v>
+        <v>0.0002885984900930097</v>
       </c>
       <c r="Q21">
-        <v>17.75895689956178</v>
+        <v>0.01522600497</v>
       </c>
       <c r="R21">
-        <v>159.830612096056</v>
+        <v>0.09135602982000002</v>
       </c>
       <c r="S21">
-        <v>0.0009311981978218836</v>
+        <v>3.062132640193233E-07</v>
       </c>
       <c r="T21">
-        <v>0.001048380881044869</v>
+        <v>2.55070872478593E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>190.6043296666667</v>
+      </c>
+      <c r="H22">
+        <v>571.812989</v>
+      </c>
+      <c r="I22">
+        <v>0.4132279930513526</v>
+      </c>
+      <c r="J22">
+        <v>0.4134907113905666</v>
+      </c>
+      <c r="K22">
         <v>2</v>
       </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.4121773333333333</v>
-      </c>
-      <c r="H22">
-        <v>1.236532</v>
-      </c>
-      <c r="I22">
-        <v>0.001823131339879293</v>
-      </c>
-      <c r="J22">
-        <v>0.001824127823450168</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1358286666666667</v>
+        <v>13.6639805</v>
       </c>
       <c r="N22">
-        <v>0.407486</v>
+        <v>27.327961</v>
       </c>
       <c r="O22">
-        <v>0.001610209036517091</v>
+        <v>0.1267530133429073</v>
       </c>
       <c r="P22">
-        <v>0.00181184863887809</v>
+        <v>0.105516198834981</v>
       </c>
       <c r="Q22">
-        <v>0.0559854976168889</v>
+        <v>2604.413843780905</v>
       </c>
       <c r="R22">
-        <v>0.503869478552</v>
+        <v>15626.48306268543</v>
       </c>
       <c r="S22">
-        <v>2.93562255823115E-06</v>
+        <v>0.0523778933169009</v>
       </c>
       <c r="T22">
-        <v>3.305043514057839E-06</v>
+        <v>0.04362996811950477</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4121773333333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="H23">
-        <v>1.236532</v>
+        <v>571.812989</v>
       </c>
       <c r="I23">
-        <v>0.001823131339879293</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="J23">
-        <v>0.001824127823450168</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.4499775</v>
+        <v>43.08571933333334</v>
       </c>
       <c r="N23">
-        <v>46.899955</v>
+        <v>129.257158</v>
       </c>
       <c r="O23">
-        <v>0.2779926108623791</v>
+        <v>0.3996818319190926</v>
       </c>
       <c r="P23">
-        <v>0.2085362923638938</v>
+        <v>0.4990757994850972</v>
       </c>
       <c r="Q23">
-        <v>9.665549192676666</v>
+        <v>8212.32465173614</v>
       </c>
       <c r="R23">
-        <v>57.99329515605999</v>
+        <v>73910.92186562526</v>
       </c>
       <c r="S23">
-        <v>0.0005068170411180721</v>
+        <v>0.1651597212630147</v>
       </c>
       <c r="T23">
-        <v>0.0003803968531001176</v>
+        <v>0.2063632073669086</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
       </c>
       <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>190.6043296666667</v>
+      </c>
+      <c r="H24">
+        <v>571.812989</v>
+      </c>
+      <c r="I24">
+        <v>0.4132279930513526</v>
+      </c>
+      <c r="J24">
+        <v>0.4134907113905666</v>
+      </c>
+      <c r="K24">
         <v>2</v>
       </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.4121773333333333</v>
-      </c>
-      <c r="H24">
-        <v>1.236532</v>
-      </c>
-      <c r="I24">
-        <v>0.001823131339879293</v>
-      </c>
-      <c r="J24">
-        <v>0.001824127823450168</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.373275</v>
+        <v>50.7431145</v>
       </c>
       <c r="N24">
-        <v>34.119825</v>
+        <v>101.486229</v>
       </c>
       <c r="O24">
-        <v>0.1348268420004166</v>
+        <v>0.4707151528267456</v>
       </c>
       <c r="P24">
-        <v>0.1517106317395165</v>
+        <v>0.3918492535237597</v>
       </c>
       <c r="Q24">
-        <v>4.687806160766667</v>
+        <v>9671.857324471415</v>
       </c>
       <c r="R24">
-        <v>42.1902554469</v>
+        <v>58031.14394682849</v>
       </c>
       <c r="S24">
-        <v>0.0002458070411079133</v>
+        <v>0.1945126779014568</v>
       </c>
       <c r="T24">
-        <v>0.0002767395844692542</v>
+        <v>0.1620260265974019</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
       </c>
       <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>190.6043296666667</v>
+      </c>
+      <c r="H25">
+        <v>571.812989</v>
+      </c>
+      <c r="I25">
+        <v>0.4132279930513526</v>
+      </c>
+      <c r="J25">
+        <v>0.4134907113905666</v>
+      </c>
+      <c r="K25">
         <v>2</v>
       </c>
-      <c r="F25">
+      <c r="L25">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G25">
-        <v>0.4121773333333333</v>
-      </c>
-      <c r="H25">
-        <v>1.236532</v>
-      </c>
-      <c r="I25">
-        <v>0.001823131339879293</v>
-      </c>
-      <c r="J25">
-        <v>0.001824127823450168</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
       <c r="M25">
-        <v>1.596503666666667</v>
+        <v>0.2823153333333333</v>
       </c>
       <c r="N25">
-        <v>4.789511</v>
+        <v>0.846946</v>
       </c>
       <c r="O25">
-        <v>0.01892608308677601</v>
+        <v>0.00261887955804001</v>
       </c>
       <c r="P25">
-        <v>0.02129611566100833</v>
+        <v>0.003270149666068823</v>
       </c>
       <c r="Q25">
-        <v>0.6580426239835556</v>
+        <v>53.81052486462155</v>
       </c>
       <c r="R25">
-        <v>5.922383615852</v>
+        <v>484.294723781594</v>
       </c>
       <c r="S25">
-        <v>3.450473521666078E-05</v>
+        <v>0.001082194343812087</v>
       </c>
       <c r="T25">
-        <v>3.884683710865816E-05</v>
+        <v>0.001352176511776421</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,13 +2016,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,60 +2031,60 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>100.6318613333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="H26">
-        <v>301.895584</v>
+        <v>571.812989</v>
       </c>
       <c r="I26">
-        <v>0.4451120557830785</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="J26">
-        <v>0.4453553442621278</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>4.713374999999999</v>
+        <v>0.024915</v>
       </c>
       <c r="N26">
-        <v>9.426749999999998</v>
+        <v>0.07474500000000001</v>
       </c>
       <c r="O26">
-        <v>0.05587567929323027</v>
+        <v>0.0002311223532146094</v>
       </c>
       <c r="P26">
-        <v>0.0419151680218315</v>
+        <v>0.0002885984900930097</v>
       </c>
       <c r="Q26">
-        <v>474.3156994119999</v>
+        <v>4.748906873645001</v>
       </c>
       <c r="R26">
-        <v>2845.894196471999</v>
+        <v>42.740161862805</v>
       </c>
       <c r="S26">
-        <v>0.02487093847848572</v>
+        <v>9.550622616817887E-05</v>
       </c>
       <c r="T26">
-        <v>0.01866714408416769</v>
+        <v>0.000119332794974802</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,60 +2093,60 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>100.6318613333333</v>
+        <v>109.381785</v>
       </c>
       <c r="H27">
-        <v>301.895584</v>
+        <v>328.145355</v>
       </c>
       <c r="I27">
-        <v>0.4451120557830785</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="J27">
-        <v>0.4453553442621278</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>43.08571933333334</v>
+        <v>13.6639805</v>
       </c>
       <c r="N27">
-        <v>129.257158</v>
+        <v>27.327961</v>
       </c>
       <c r="O27">
-        <v>0.5107685757206811</v>
+        <v>0.1267530133429073</v>
       </c>
       <c r="P27">
-        <v>0.5747299435748717</v>
+        <v>0.105516198834981</v>
       </c>
       <c r="Q27">
-        <v>4335.79613339892</v>
+        <v>1494.590577295193</v>
       </c>
       <c r="R27">
-        <v>39022.16520059027</v>
+        <v>8967.543463771155</v>
       </c>
       <c r="S27">
-        <v>0.2273492507684274</v>
+        <v>0.03005801324430315</v>
       </c>
       <c r="T27">
-        <v>0.2559590518785402</v>
+        <v>0.02503785617436119</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,60 +2155,60 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>100.6318613333333</v>
+        <v>109.381785</v>
       </c>
       <c r="H28">
-        <v>301.895584</v>
+        <v>328.145355</v>
       </c>
       <c r="I28">
-        <v>0.4451120557830785</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="J28">
-        <v>0.4453553442621278</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.1358286666666667</v>
+        <v>43.08571933333334</v>
       </c>
       <c r="N28">
-        <v>0.407486</v>
+        <v>129.257158</v>
       </c>
       <c r="O28">
-        <v>0.001610209036517091</v>
+        <v>0.3996818319190926</v>
       </c>
       <c r="P28">
-        <v>0.00181184863887809</v>
+        <v>0.4990757994850972</v>
       </c>
       <c r="Q28">
-        <v>13.66869154909156</v>
+        <v>4712.79288868901</v>
       </c>
       <c r="R28">
-        <v>123.018223941824</v>
+        <v>42415.13599820109</v>
       </c>
       <c r="S28">
-        <v>0.0007167234544846127</v>
+        <v>0.09477993051597677</v>
       </c>
       <c r="T28">
-        <v>0.0008069164743184193</v>
+        <v>0.1184253055509952</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>100.6318613333333</v>
+        <v>109.381785</v>
       </c>
       <c r="H29">
-        <v>301.895584</v>
+        <v>328.145355</v>
       </c>
       <c r="I29">
-        <v>0.4451120557830785</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="J29">
-        <v>0.4453553442621278</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,42 +2235,42 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.4499775</v>
+        <v>50.7431145</v>
       </c>
       <c r="N29">
-        <v>46.899955</v>
+        <v>101.486229</v>
       </c>
       <c r="O29">
-        <v>0.2779926108623791</v>
+        <v>0.4707151528267456</v>
       </c>
       <c r="P29">
-        <v>0.2085362923638938</v>
+        <v>0.3918492535237597</v>
       </c>
       <c r="Q29">
-        <v>2359.814884049787</v>
+        <v>5550.372440469383</v>
       </c>
       <c r="R29">
-        <v>14158.88930429872</v>
+        <v>33302.2346428163</v>
       </c>
       <c r="S29">
-        <v>0.1237378625134589</v>
+        <v>0.1116246622057307</v>
       </c>
       <c r="T29">
-        <v>0.09287275227686967</v>
+        <v>0.09298160244667664</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,60 +2279,60 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>100.6318613333333</v>
+        <v>109.381785</v>
       </c>
       <c r="H30">
-        <v>301.895584</v>
+        <v>328.145355</v>
       </c>
       <c r="I30">
-        <v>0.4451120557830785</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="J30">
-        <v>0.4453553442621278</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>11.373275</v>
+        <v>0.2823153333333333</v>
       </c>
       <c r="N30">
-        <v>34.119825</v>
+        <v>0.846946</v>
       </c>
       <c r="O30">
-        <v>0.1348268420004166</v>
+        <v>0.00261887955804001</v>
       </c>
       <c r="P30">
-        <v>0.1517106317395165</v>
+        <v>0.003270149666068823</v>
       </c>
       <c r="Q30">
-        <v>1144.513832705867</v>
+        <v>30.88015509286999</v>
       </c>
       <c r="R30">
-        <v>10300.6244943528</v>
+        <v>277.92139583583</v>
       </c>
       <c r="S30">
-        <v>0.06001305281754575</v>
+        <v>0.0006210370417612342</v>
       </c>
       <c r="T30">
-        <v>0.06756514062657724</v>
+        <v>0.0007759712528662679</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>100.6318613333333</v>
+        <v>109.381785</v>
       </c>
       <c r="H31">
-        <v>301.895584</v>
+        <v>328.145355</v>
       </c>
       <c r="I31">
-        <v>0.4451120557830785</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="J31">
-        <v>0.4453553442621278</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>1.596503666666667</v>
+        <v>0.024915</v>
       </c>
       <c r="N31">
-        <v>4.789511</v>
+        <v>0.07474500000000001</v>
       </c>
       <c r="O31">
-        <v>0.01892608308677601</v>
+        <v>0.0002311223532146094</v>
       </c>
       <c r="P31">
-        <v>0.02129611566100833</v>
+        <v>0.0002885984900930097</v>
       </c>
       <c r="Q31">
-        <v>160.6591356021582</v>
+        <v>2.725247173275</v>
       </c>
       <c r="R31">
-        <v>1445.932220419424</v>
+        <v>24.527224559475</v>
       </c>
       <c r="S31">
-        <v>0.008424227750676224</v>
+        <v>5.480799683385182E-05</v>
       </c>
       <c r="T31">
-        <v>0.009484338921654453</v>
+        <v>6.848130966494818E-05</v>
       </c>
     </row>
   </sheetData>
